--- a/documents/CTS6326_Project plan.xlsx
+++ b/documents/CTS6326_Project plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hk1nam4\PTTKHDT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\JavaScript\streamingmovie\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF5EEA7-9008-4D6A-9667-780F2B05B757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4368B0-A9A6-4701-9A9A-5ECD1D3D990A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectPlan" sheetId="16" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>TT</t>
   </si>
@@ -684,22 +684,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.05" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="37.125" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -722,7 +722,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -735,7 +735,7 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -752,7 +752,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1.2</v>
       </c>
@@ -769,7 +769,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1.3</v>
       </c>
@@ -786,7 +786,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1.4</v>
       </c>
@@ -803,7 +803,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -816,7 +816,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>2.1</v>
       </c>
@@ -831,7 +831,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -844,7 +844,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
@@ -853,13 +853,15 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F10" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -868,13 +870,15 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F11" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -883,13 +887,15 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>2.2999999999999998</v>
       </c>
@@ -902,7 +908,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -919,7 +925,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
@@ -936,7 +942,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
@@ -953,7 +959,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>3</v>
       </c>
@@ -966,7 +972,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>3.1</v>
       </c>
@@ -975,13 +981,15 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F18" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>3.2</v>
       </c>
@@ -990,13 +998,15 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F19" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>3.3</v>
       </c>
@@ -1005,13 +1015,15 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>3.4</v>
       </c>
@@ -1020,13 +1032,15 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F21" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>3.5</v>
       </c>
@@ -1035,13 +1049,15 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>3.6</v>
       </c>
@@ -1050,13 +1066,15 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>3.7</v>
       </c>
@@ -1065,13 +1083,15 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>3.8</v>
       </c>
@@ -1086,7 +1106,7 @@
       </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>4</v>
       </c>
@@ -1099,7 +1119,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -1112,7 +1132,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>4.2</v>
       </c>
@@ -1125,7 +1145,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>4.3</v>
       </c>
@@ -1138,7 +1158,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>5</v>
       </c>
@@ -1151,7 +1171,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -1164,7 +1184,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>5.2</v>
       </c>

--- a/documents/CTS6326_Project plan.xlsx
+++ b/documents/CTS6326_Project plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\JavaScript\streamingmovie\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4368B0-A9A6-4701-9A9A-5ECD1D3D990A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB8C0C3-25A8-4813-8B2B-B00EBDAF9DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
   <si>
     <t>TT</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>CHƯA HOÀN THÀNH</t>
+  </si>
+  <si>
+    <t>ĐANG TRONG QUÁ TRÌNH</t>
   </si>
 </sst>
 </file>
@@ -252,7 +255,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -271,6 +274,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -695,7 +701,7 @@
     <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="13.75" customWidth="1"/>
     <col min="5" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -826,7 +832,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G8" s="1"/>
@@ -1083,7 +1089,7 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="9" t="s">
         <v>43</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -1101,7 +1107,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G25" s="1"/>
@@ -1128,8 +1134,12 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
@@ -1142,7 +1152,9 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="10">
+        <v>0.8</v>
+      </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
@@ -1155,7 +1167,9 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="F29" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.25">

--- a/documents/CTS6326_Project plan.xlsx
+++ b/documents/CTS6326_Project plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\JavaScript\streamingmovie\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB8C0C3-25A8-4813-8B2B-B00EBDAF9DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934259DC-BC09-4F29-85EA-7E9F21805953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
   <si>
     <t>TT</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>ĐANG TRONG QUÁ TRÌNH</t>
+  </si>
+  <si>
+    <t>Hoàn thành</t>
   </si>
 </sst>
 </file>
@@ -690,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -831,9 +834,11 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F8" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -1194,8 +1199,12 @@
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
